--- a/va_facility_data_2025-02-20/Auburn Gresham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Auburn%20Gresham%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Auburn Gresham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Auburn%20Gresham%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R717b93d5e1ce4412b9f2e4ee65cf9b86"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcc67a855ebc74cff869b481c1db52dd5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4dd91a68ffc04da397c192bf2ba74f60"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb86c3e6631434749b9f67364c8e6c08b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R77621078a8ea4ccfb71874712127be05"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re4a28059e5dc4041abe59c60edac63e6"/>
   </x:sheets>
 </x:workbook>
 </file>
